--- a/tut05/output/0401EE30.xlsx
+++ b/tut05/output/0401EE30.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.877551020408164</v>
+        <v>6.88</v>
       </c>
       <c r="C6" t="n">
-        <v>6.113636363636363</v>
+        <v>6.11</v>
       </c>
       <c r="D6" t="n">
-        <v>6.869565217391305</v>
+        <v>6.87</v>
       </c>
       <c r="E6" t="n">
-        <v>6.478260869565218</v>
+        <v>6.48</v>
       </c>
       <c r="F6" t="n">
-        <v>7.769230769230769</v>
+        <v>7.77</v>
       </c>
       <c r="G6" t="n">
-        <v>5.575</v>
+        <v>5.58</v>
       </c>
       <c r="H6" t="n">
-        <v>7.813953488372093</v>
+        <v>7.81</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.877551020408164</v>
+        <v>6.88</v>
       </c>
       <c r="C8" t="n">
-        <v>6.516129032258065</v>
+        <v>6.52</v>
       </c>
       <c r="D8" t="n">
-        <v>6.633093525179856</v>
+        <v>6.63</v>
       </c>
       <c r="E8" t="n">
-        <v>6.594594594594595</v>
+        <v>6.59</v>
       </c>
       <c r="F8" t="n">
-        <v>6.799107142857143</v>
+        <v>6.8</v>
       </c>
       <c r="G8" t="n">
-        <v>6.613636363636363</v>
+        <v>6.61</v>
       </c>
       <c r="H8" t="n">
-        <v>6.781758957654723</v>
+        <v>6.78</v>
       </c>
       <c r="I8" t="n">
-        <v>6.915942028985508</v>
+        <v>6.92</v>
       </c>
     </row>
   </sheetData>
